--- a/document/Design/Field Definition/Field_Defined_Movie.xlsx
+++ b/document/Design/Field Definition/Field_Defined_Movie.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MOVIE010100" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,26 +18,267 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+  <si>
+    <t>Return to Index</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Screen Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen Title </t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Field Description</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Display Field Name</t>
+  </si>
+  <si>
+    <t>Placeholder</t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Tab Index</t>
+  </si>
+  <si>
+    <t>I /O (Input/Output)</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of Values (Reference ID in case of Long List) </t>
+  </si>
+  <si>
+    <t>Configurable Field ( Y/N )</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>M/O/C/D(Mandatory/Optional/Conditional/Display)</t>
+  </si>
+  <si>
+    <t>Length of the Field</t>
+  </si>
+  <si>
+    <t>Interface Point (Host Name/DB)</t>
+  </si>
+  <si>
+    <t>Validations with Result (Including Errer Msg Code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Board Name</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Ref# DB</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>DB (mbm_board)</t>
+  </si>
+  <si>
+    <t>Screen Control</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Button/Link Name</t>
+  </si>
+  <si>
+    <t>Next Screen Name or Action</t>
+  </si>
+  <si>
+    <t>Button or Link</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>Create Board</t>
+  </si>
+  <si>
+    <t>Redirect to BMSMT0202 Create Board</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>BMSMT020200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กรณีสำหรับ User ที่กำลัง login  
+- ถูกถอดสิทธิ์  [Object Permission = BMSMT020200]  
+- Role ถูก Inactive โดยผู้ใช้งานท่านอื่น error COM01301  
+- User ถูกปลดออกจาก Role โดยผู้ใช้งานท่านอื่น error COM01301  
+- User ถูก Inactive โดยผู้ใช้งานท่านอื่น error COM01301  
+- User ถูก lock โดยผู้ใช้งานท่านอื่น error COM01301 </t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>MOVIE010100</t>
+  </si>
+  <si>
+    <t>Movie List</t>
+  </si>
+  <si>
+    <t>Movie Home</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,15 +286,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent3 2 2 2" xfId="5"/>
+    <cellStyle name="Accent3" xfId="1" builtinId="37"/>
+    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +768,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.75" customWidth="1"/>
+    <col min="18" max="18" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>1</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="Index!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>